--- a/DataBaseName.xlsx
+++ b/DataBaseName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121C7CC-1737-4D78-8758-017FED486FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134AC949-2434-4637-93FF-1DED8ADE7C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{342168C5-6158-4493-8274-8303BF58C521}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="10965" xr2:uid="{342168C5-6158-4493-8274-8303BF58C521}"/>
   </bookViews>
   <sheets>
     <sheet name="TestClass" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
